--- a/assets/wiki/level1_wikipage/ModifiedLvl1Grid.xlsx
+++ b/assets/wiki/level1_wikipage/ModifiedLvl1Grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DECO2800\Sprint Stuff\Level 1 layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47D4C64-11BC-4143-A8E0-8655261BD400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE67D1-D3F3-4F61-BA48-C6B3304DB01C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="940" windowWidth="17420" windowHeight="7810" activeTab="1" xr2:uid="{3AF034EE-DF52-4F52-A8D1-E5EB58F305A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="36">
   <si>
     <t>X</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t>NPC</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,6 +818,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,6 +830,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF85BF"/>
       <color rgb="FFFF6B43"/>
       <color rgb="FFFF6161"/>
       <color rgb="FFFF9966"/>
@@ -4557,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7111954E-7F33-4037-8362-7BA3934BF13F}">
   <dimension ref="A1:DK80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AP62" sqref="AP62"/>
+    <sheetView tabSelected="1" topLeftCell="BA7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CX30" sqref="CX30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6004,6 +6011,7 @@
       <c r="CA19" s="27"/>
       <c r="CB19" s="27"/>
       <c r="CC19" s="27"/>
+      <c r="CF19" s="92"/>
       <c r="CI19" s="36" t="s">
         <v>3</v>
       </c>
@@ -6109,6 +6117,9 @@
       <c r="CA20" s="27"/>
       <c r="CB20" s="27"/>
       <c r="CC20" s="27"/>
+      <c r="CF20" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="CK20" s="26" t="s">
         <v>16</v>
       </c>
